--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T15:17:50+00:00</t>
+    <t>2025-09-26T08:52:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Pièce jointe de l’évènement</t>
+    <t>Pièce jointe</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T08:52:04+00:00</t>
+    <t>2025-09-26T11:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement.</t>
+    <t>Pièces jointes.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T11:13:08+00:00</t>
+    <t>2025-09-26T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T13:47:48+00:00</t>
+    <t>2025-09-29T08:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T08:20:50+00:00</t>
+    <t>2025-09-29T14:52:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:52:40+00:00</t>
+    <t>2025-09-29T15:54:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T15:54:50+00:00</t>
+    <t>2025-10-01T07:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:41:07+00:00</t>
+    <t>2025-10-01T07:57:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T07:57:22+00:00</t>
+    <t>2025-10-01T09:25:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T09:25:52+00:00</t>
+    <t>2025-10-01T13:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T13:14:57+00:00</t>
+    <t>2025-10-01T16:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:07:51+00:00</t>
+    <t>2025-10-03T13:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T13:32:59+00:00</t>
+    <t>2025-10-03T14:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T14:19:43+00:00</t>
+    <t>2025-10-06T09:55:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T09:55:58+00:00</t>
+    <t>2025-10-06T14:50:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:50:01+00:00</t>
+    <t>2025-10-07T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:55:00+00:00</t>
+    <t>2025-10-07T14:18:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:18:23+00:00</t>
+    <t>2025-10-07T16:19:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T16:19:46+00:00</t>
+    <t>2025-10-08T12:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:42:57+00:00</t>
+    <t>2025-10-08T15:14:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T15:14:16+00:00</t>
+    <t>2025-10-13T13:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T13:31:44+00:00</t>
+    <t>2025-10-15T11:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:45:31+00:00</t>
+    <t>2025-10-15T11:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T11:51:21+00:00</t>
+    <t>2025-10-15T15:04:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
+++ b/299-Ajout-de-l'évaluation/ig/StructureDefinition-tddui-attachment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:22+00:00</t>
+    <t>2025-10-16T14:47:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pièces jointes.</t>
+    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -331,7 +331,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
 </t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="10.13671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.70703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
